--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2671.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2671.xlsx
@@ -354,7 +354,7 @@
         <v>2.421991105191928</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.328156414370678</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2671.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2671.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160230604923734</v>
+        <v>1.182548999786377</v>
       </c>
       <c r="B1">
-        <v>2.421991105191928</v>
+        <v>1.251620054244995</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.416848421096802</v>
       </c>
       <c r="D1">
-        <v>2.328156414370678</v>
+        <v>2.251186847686768</v>
       </c>
       <c r="E1">
-        <v>1.210760850616991</v>
+        <v>4.486071586608887</v>
       </c>
     </row>
   </sheetData>
